--- a/pred_ohlcv/54/2019-10-08 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-08 ZRX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E2" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>9.1028</v>
       </c>
       <c r="G2" t="n">
-        <v>265.35</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +442,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="n">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>265.3666666666667</v>
+        <v>265.35</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E4" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="n">
-        <v>73.9559</v>
+        <v>2200</v>
       </c>
       <c r="G4" t="n">
-        <v>265.4166666666667</v>
+        <v>265.3666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" t="n">
-        <v>1978.5356</v>
+        <v>73.9559</v>
       </c>
       <c r="G5" t="n">
-        <v>265.45</v>
+        <v>265.4166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>268</v>
+        <v>1978.5356</v>
       </c>
       <c r="G6" t="n">
-        <v>265.4666666666666</v>
+        <v>265.45</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>269</v>
       </c>
       <c r="F7" t="n">
-        <v>138.1642</v>
+        <v>268</v>
       </c>
       <c r="G7" t="n">
-        <v>265.5</v>
+        <v>265.4666666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" t="n">
-        <v>119</v>
+        <v>138.1642</v>
       </c>
       <c r="G8" t="n">
-        <v>265.55</v>
+        <v>265.5</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>576.9999</v>
+        <v>119</v>
       </c>
       <c r="G9" t="n">
-        <v>265.6</v>
+        <v>265.55</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>270</v>
       </c>
       <c r="F10" t="n">
-        <v>899.8799222222223</v>
+        <v>576.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>265.65</v>
+        <v>265.6</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>899.8799222222223</v>
       </c>
       <c r="G11" t="n">
-        <v>265.7333333333333</v>
+        <v>265.65</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F12" t="n">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>265.8333333333333</v>
+        <v>265.7333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F13" t="n">
-        <v>348</v>
+        <v>152</v>
       </c>
       <c r="G13" t="n">
-        <v>265.95</v>
+        <v>265.8333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>271</v>
       </c>
       <c r="F14" t="n">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="G14" t="n">
-        <v>266.0833333333333</v>
+        <v>265.95</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>271</v>
       </c>
       <c r="F15" t="n">
-        <v>1732.8955</v>
+        <v>427</v>
       </c>
       <c r="G15" t="n">
-        <v>266.2</v>
+        <v>266.0833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>271</v>
       </c>
       <c r="F16" t="n">
-        <v>595.41</v>
+        <v>1732.8955</v>
       </c>
       <c r="G16" t="n">
-        <v>266.2666666666667</v>
+        <v>266.2</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>271</v>
       </c>
       <c r="F17" t="n">
-        <v>745.3874</v>
+        <v>595.41</v>
       </c>
       <c r="G17" t="n">
-        <v>266.35</v>
+        <v>266.2666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>271</v>
       </c>
       <c r="C18" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E18" t="n">
         <v>271</v>
       </c>
       <c r="F18" t="n">
-        <v>3056.1693</v>
+        <v>745.3874</v>
       </c>
       <c r="G18" t="n">
-        <v>266.4166666666667</v>
+        <v>266.35</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="n">
         <v>272</v>
@@ -859,15 +915,18 @@
         <v>272</v>
       </c>
       <c r="E19" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F19" t="n">
-        <v>1372.408</v>
+        <v>3056.1693</v>
       </c>
       <c r="G19" t="n">
-        <v>266.4833333333333</v>
+        <v>266.4166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" t="n">
-        <v>17.975</v>
+        <v>1372.408</v>
       </c>
       <c r="G20" t="n">
-        <v>266.55</v>
+        <v>266.4833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E21" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>17.975</v>
       </c>
       <c r="G21" t="n">
-        <v>266.6666666666667</v>
+        <v>266.55</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E22" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F22" t="n">
-        <v>84.02</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>266.7166666666666</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E23" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>84.02</v>
       </c>
       <c r="G23" t="n">
-        <v>266.7333333333333</v>
+        <v>266.7166666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E24" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F24" t="n">
-        <v>168.1247</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>266.7333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>268</v>
       </c>
       <c r="F25" t="n">
-        <v>292.823</v>
+        <v>168.1247</v>
       </c>
       <c r="G25" t="n">
         <v>266.7333333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E26" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F26" t="n">
-        <v>1130.2081</v>
+        <v>292.823</v>
       </c>
       <c r="G26" t="n">
-        <v>266.6833333333333</v>
+        <v>266.7333333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F27" t="n">
-        <v>4.9875</v>
+        <v>1130.2081</v>
       </c>
       <c r="G27" t="n">
-        <v>266.65</v>
+        <v>266.6833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E28" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F28" t="n">
-        <v>5.114</v>
+        <v>4.9875</v>
       </c>
       <c r="G28" t="n">
-        <v>266.6333333333333</v>
+        <v>266.65</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>265</v>
       </c>
       <c r="C29" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E29" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>8397.5908</v>
+        <v>5.114</v>
       </c>
       <c r="G29" t="n">
-        <v>266.65</v>
+        <v>266.6333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>46.0262</v>
+        <v>8397.5908</v>
       </c>
       <c r="G30" t="n">
-        <v>266.6833333333333</v>
+        <v>266.65</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>267</v>
       </c>
       <c r="F31" t="n">
-        <v>525.4794000000001</v>
+        <v>46.0262</v>
       </c>
       <c r="G31" t="n">
-        <v>266.7166666666666</v>
+        <v>266.6833333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>267</v>
       </c>
       <c r="F32" t="n">
-        <v>674.8873</v>
+        <v>525.4794000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>266.75</v>
+        <v>266.7166666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>267</v>
       </c>
       <c r="F33" t="n">
-        <v>1383.6525</v>
+        <v>674.8873</v>
       </c>
       <c r="G33" t="n">
-        <v>266.7833333333334</v>
+        <v>266.75</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>267</v>
       </c>
       <c r="F34" t="n">
-        <v>592.994</v>
+        <v>1383.6525</v>
       </c>
       <c r="G34" t="n">
-        <v>266.8166666666667</v>
+        <v>266.7833333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" t="n">
-        <v>128</v>
+        <v>592.994</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8666666666667</v>
+        <v>266.8166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E36" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F36" t="n">
-        <v>24.3207</v>
+        <v>128</v>
       </c>
       <c r="G36" t="n">
-        <v>266.9666666666666</v>
+        <v>266.8666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" t="n">
-        <v>960.9526930147059</v>
+        <v>24.3207</v>
       </c>
       <c r="G37" t="n">
-        <v>267.0666666666667</v>
+        <v>266.9666666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D38" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E38" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>960.9526930147059</v>
       </c>
       <c r="G38" t="n">
-        <v>267.1833333333333</v>
+        <v>267.0666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>267.3166666666667</v>
+        <v>267.1833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F40" t="n">
-        <v>10.1245</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>267.4666666666666</v>
+        <v>267.3166666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E41" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F41" t="n">
-        <v>17051.7638</v>
+        <v>10.1245</v>
       </c>
       <c r="G41" t="n">
-        <v>267.65</v>
+        <v>267.4666666666666</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>272</v>
       </c>
       <c r="F42" t="n">
-        <v>1244.7663</v>
+        <v>17051.7638</v>
       </c>
       <c r="G42" t="n">
-        <v>267.8333333333333</v>
+        <v>267.65</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>272</v>
       </c>
       <c r="F43" t="n">
-        <v>3637.5356</v>
+        <v>1244.7663</v>
       </c>
       <c r="G43" t="n">
-        <v>268.0333333333334</v>
+        <v>267.8333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E44" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F44" t="n">
-        <v>227.3306</v>
+        <v>3637.5356</v>
       </c>
       <c r="G44" t="n">
-        <v>268.2</v>
+        <v>268.0333333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F45" t="n">
-        <v>3242.1828</v>
+        <v>227.3306</v>
       </c>
       <c r="G45" t="n">
-        <v>268.3833333333333</v>
+        <v>268.2</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>272</v>
       </c>
       <c r="F46" t="n">
-        <v>1650.799006985294</v>
+        <v>3242.1828</v>
       </c>
       <c r="G46" t="n">
-        <v>268.55</v>
+        <v>268.3833333333333</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E47" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F47" t="n">
-        <v>240.2624</v>
+        <v>1650.799006985294</v>
       </c>
       <c r="G47" t="n">
-        <v>268.7333333333333</v>
+        <v>268.55</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C48" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D48" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E48" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F48" t="n">
-        <v>15000</v>
+        <v>240.2624</v>
       </c>
       <c r="G48" t="n">
-        <v>268.8666666666667</v>
+        <v>268.7333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C49" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D49" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E49" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F49" t="n">
-        <v>733.8013</v>
+        <v>15000</v>
       </c>
       <c r="G49" t="n">
-        <v>269.0666666666667</v>
+        <v>268.8666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>274</v>
       </c>
       <c r="F50" t="n">
-        <v>395.9062</v>
+        <v>733.8013</v>
       </c>
       <c r="G50" t="n">
-        <v>269.2666666666667</v>
+        <v>269.0666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>395.9062</v>
       </c>
       <c r="G51" t="n">
-        <v>269.4833333333333</v>
+        <v>269.2666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>275</v>
       </c>
       <c r="F52" t="n">
-        <v>385.2109090909091</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>269.6666666666667</v>
+        <v>269.4833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>275</v>
       </c>
       <c r="F53" t="n">
-        <v>3323.4582</v>
+        <v>385.2109090909091</v>
       </c>
       <c r="G53" t="n">
-        <v>269.8666666666667</v>
+        <v>269.6666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>275</v>
       </c>
       <c r="C54" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D54" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E54" t="n">
         <v>275</v>
       </c>
       <c r="F54" t="n">
-        <v>1221.771419428947</v>
+        <v>3323.4582</v>
       </c>
       <c r="G54" t="n">
-        <v>270.05</v>
+        <v>269.8666666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>275</v>
       </c>
       <c r="C55" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D55" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E55" t="n">
         <v>275</v>
       </c>
       <c r="F55" t="n">
-        <v>106.3202</v>
+        <v>1221.771419428947</v>
       </c>
       <c r="G55" t="n">
-        <v>270.1833333333333</v>
+        <v>270.05</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>275</v>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>106.3202</v>
       </c>
       <c r="G56" t="n">
-        <v>270.2833333333334</v>
+        <v>270.1833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" t="n">
         <v>275</v>
       </c>
       <c r="D57" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E57" t="n">
         <v>275</v>
       </c>
       <c r="F57" t="n">
-        <v>19771.9061</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>270.3833333333333</v>
+        <v>270.2833333333334</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C58" t="n">
         <v>275</v>
       </c>
       <c r="D58" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E58" t="n">
         <v>275</v>
       </c>
       <c r="F58" t="n">
-        <v>893</v>
+        <v>19771.9061</v>
       </c>
       <c r="G58" t="n">
-        <v>270.5</v>
+        <v>270.3833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E59" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F59" t="n">
-        <v>494.463768115942</v>
+        <v>893</v>
       </c>
       <c r="G59" t="n">
-        <v>270.6333333333333</v>
+        <v>270.5</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C60" t="n">
         <v>276</v>
@@ -1925,15 +2104,18 @@
         <v>276</v>
       </c>
       <c r="E60" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F60" t="n">
-        <v>8349.413</v>
+        <v>494.463768115942</v>
       </c>
       <c r="G60" t="n">
-        <v>270.7833333333334</v>
+        <v>270.6333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2124,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" t="n">
         <v>276</v>
@@ -1951,15 +2133,18 @@
         <v>276</v>
       </c>
       <c r="E61" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F61" t="n">
-        <v>4.0198</v>
+        <v>8349.413</v>
       </c>
       <c r="G61" t="n">
-        <v>270.9166666666667</v>
+        <v>270.7833333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E62" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F62" t="n">
-        <v>419.9695</v>
+        <v>4.0198</v>
       </c>
       <c r="G62" t="n">
-        <v>271</v>
+        <v>270.9166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>275</v>
       </c>
       <c r="F63" t="n">
-        <v>819.9999</v>
+        <v>419.9695</v>
       </c>
       <c r="G63" t="n">
-        <v>271.1</v>
+        <v>271</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>275</v>
       </c>
       <c r="F64" t="n">
-        <v>236.7767</v>
+        <v>819.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>271.2166666666666</v>
+        <v>271.1</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>275</v>
       </c>
       <c r="F65" t="n">
-        <v>200.5375</v>
+        <v>236.7767</v>
       </c>
       <c r="G65" t="n">
-        <v>271.3</v>
+        <v>271.2166666666666</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>275</v>
       </c>
       <c r="F66" t="n">
-        <v>3323.1032</v>
+        <v>200.5375</v>
       </c>
       <c r="G66" t="n">
-        <v>271.4</v>
+        <v>271.3</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>275</v>
       </c>
       <c r="F67" t="n">
-        <v>921.4307</v>
+        <v>3323.1032</v>
       </c>
       <c r="G67" t="n">
-        <v>271.5</v>
+        <v>271.4</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>275</v>
       </c>
       <c r="F68" t="n">
-        <v>1021.277</v>
+        <v>921.4307</v>
       </c>
       <c r="G68" t="n">
-        <v>271.5833333333333</v>
+        <v>271.5</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C69" t="n">
         <v>275</v>
@@ -2159,15 +2365,18 @@
         <v>275</v>
       </c>
       <c r="E69" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F69" t="n">
-        <v>29001.9182</v>
+        <v>1021.277</v>
       </c>
       <c r="G69" t="n">
-        <v>271.6666666666667</v>
+        <v>271.5833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>274</v>
+      </c>
+      <c r="C70" t="n">
         <v>275</v>
       </c>
-      <c r="C70" t="n">
-        <v>276</v>
-      </c>
       <c r="D70" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E70" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" t="n">
-        <v>1952.3757</v>
+        <v>29001.9182</v>
       </c>
       <c r="G70" t="n">
-        <v>271.7666666666667</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C71" t="n">
         <v>276</v>
@@ -2211,15 +2423,18 @@
         <v>276</v>
       </c>
       <c r="E71" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" t="n">
-        <v>343.7463</v>
+        <v>1952.3757</v>
       </c>
       <c r="G71" t="n">
-        <v>271.85</v>
+        <v>271.7666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E72" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F72" t="n">
-        <v>1250.105</v>
+        <v>343.7463</v>
       </c>
       <c r="G72" t="n">
-        <v>271.9333333333333</v>
+        <v>271.85</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C73" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D73" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E73" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F73" t="n">
-        <v>5722.2918</v>
+        <v>1250.105</v>
       </c>
       <c r="G73" t="n">
-        <v>271.9833333333333</v>
+        <v>271.9333333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2289,15 +2510,18 @@
         <v>274</v>
       </c>
       <c r="E74" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F74" t="n">
-        <v>360</v>
+        <v>5722.2918</v>
       </c>
       <c r="G74" t="n">
-        <v>272.0333333333334</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>274</v>
       </c>
       <c r="F75" t="n">
-        <v>2412.4087</v>
+        <v>360</v>
       </c>
       <c r="G75" t="n">
-        <v>272.0833333333333</v>
+        <v>272.0333333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>274</v>
       </c>
       <c r="C76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D76" t="n">
         <v>274</v>
       </c>
       <c r="E76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F76" t="n">
-        <v>1244.544</v>
+        <v>2412.4087</v>
       </c>
       <c r="G76" t="n">
-        <v>272.1166666666667</v>
+        <v>272.0833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,10 +2588,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>274</v>
+      </c>
+      <c r="C77" t="n">
         <v>273</v>
-      </c>
-      <c r="C77" t="n">
-        <v>274</v>
       </c>
       <c r="D77" t="n">
         <v>274</v>
@@ -2370,12 +2600,15 @@
         <v>273</v>
       </c>
       <c r="F77" t="n">
-        <v>12482.2183</v>
+        <v>1244.544</v>
       </c>
       <c r="G77" t="n">
-        <v>272.1666666666667</v>
+        <v>272.1166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" t="n">
         <v>274</v>
@@ -2393,15 +2626,18 @@
         <v>274</v>
       </c>
       <c r="E78" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F78" t="n">
-        <v>16859.6012</v>
+        <v>12482.2183</v>
       </c>
       <c r="G78" t="n">
-        <v>272.2</v>
+        <v>272.1666666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C79" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E79" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F79" t="n">
-        <v>18510.5139</v>
+        <v>16859.6012</v>
       </c>
       <c r="G79" t="n">
         <v>272.2</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D80" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E80" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F80" t="n">
-        <v>356.5811</v>
+        <v>18510.5139</v>
       </c>
       <c r="G80" t="n">
-        <v>272.25</v>
+        <v>272.2</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F81" t="n">
-        <v>824.3801</v>
+        <v>356.5811</v>
       </c>
       <c r="G81" t="n">
-        <v>272.2833333333334</v>
+        <v>272.25</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E82" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F82" t="n">
-        <v>47.448</v>
+        <v>824.3801</v>
       </c>
       <c r="G82" t="n">
-        <v>272.3833333333333</v>
+        <v>272.2833333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>276</v>
       </c>
       <c r="F83" t="n">
-        <v>5772.4585</v>
+        <v>47.448</v>
       </c>
       <c r="G83" t="n">
-        <v>272.5</v>
+        <v>272.3833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E84" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F84" t="n">
-        <v>368.8079</v>
+        <v>5772.4585</v>
       </c>
       <c r="G84" t="n">
-        <v>272.65</v>
+        <v>272.5</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E85" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
+        <v>368.8079</v>
       </c>
       <c r="G85" t="n">
-        <v>272.8166666666667</v>
+        <v>272.65</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>278</v>
       </c>
       <c r="F86" t="n">
-        <v>1387</v>
+        <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>273</v>
+        <v>272.8166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E87" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F87" t="n">
-        <v>223.025</v>
+        <v>1387</v>
       </c>
       <c r="G87" t="n">
-        <v>273.2166666666666</v>
+        <v>273</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>279</v>
       </c>
       <c r="C88" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D88" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E88" t="n">
         <v>279</v>
       </c>
       <c r="F88" t="n">
-        <v>21776.0202</v>
+        <v>223.025</v>
       </c>
       <c r="G88" t="n">
-        <v>273.4666666666666</v>
+        <v>273.2166666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C89" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D89" t="n">
         <v>281</v>
       </c>
       <c r="E89" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F89" t="n">
-        <v>7741.7146</v>
+        <v>21776.0202</v>
       </c>
       <c r="G89" t="n">
-        <v>273.7166666666666</v>
+        <v>273.4666666666666</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2705,15 +2974,18 @@
         <v>281</v>
       </c>
       <c r="E90" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F90" t="n">
-        <v>8330.852000000001</v>
+        <v>7741.7146</v>
       </c>
       <c r="G90" t="n">
-        <v>273.95</v>
+        <v>273.7166666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E91" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F91" t="n">
-        <v>9378.0015</v>
+        <v>8330.852000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>274.2</v>
+        <v>273.95</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>282</v>
       </c>
       <c r="F92" t="n">
-        <v>18677.3286</v>
+        <v>9378.0015</v>
       </c>
       <c r="G92" t="n">
-        <v>274.45</v>
+        <v>274.2</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,22 +3055,25 @@
         <v>282</v>
       </c>
       <c r="C93" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D93" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E93" t="n">
         <v>282</v>
       </c>
       <c r="F93" t="n">
-        <v>2141.530269257951</v>
+        <v>18677.3286</v>
       </c>
       <c r="G93" t="n">
-        <v>274.7166666666666</v>
+        <v>274.45</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2803,7 +3084,7 @@
         <v>282</v>
       </c>
       <c r="C94" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" t="n">
         <v>283</v>
@@ -2812,13 +3093,16 @@
         <v>282</v>
       </c>
       <c r="F94" t="n">
-        <v>6213.232690070922</v>
+        <v>2141.530269257951</v>
       </c>
       <c r="G94" t="n">
-        <v>274.9666666666666</v>
+        <v>274.7166666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +3110,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C95" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D95" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E95" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F95" t="n">
-        <v>1561.096</v>
+        <v>6213.232690070922</v>
       </c>
       <c r="G95" t="n">
-        <v>275.1833333333333</v>
+        <v>274.9666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C96" t="n">
         <v>281</v>
@@ -2861,16 +3148,19 @@
         <v>281</v>
       </c>
       <c r="E96" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F96" t="n">
-        <v>3190.8631</v>
+        <v>1561.096</v>
       </c>
       <c r="G96" t="n">
-        <v>275.3666666666667</v>
+        <v>275.1833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +3168,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C97" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E97" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F97" t="n">
-        <v>1016.0057</v>
+        <v>3190.8631</v>
       </c>
       <c r="G97" t="n">
-        <v>275.5333333333334</v>
+        <v>275.3666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2916,12 +3209,15 @@
         <v>282</v>
       </c>
       <c r="F98" t="n">
-        <v>327.308409929078</v>
+        <v>1016.0057</v>
       </c>
       <c r="G98" t="n">
-        <v>275.7333333333333</v>
+        <v>275.5333333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>282</v>
       </c>
       <c r="F99" t="n">
-        <v>2.691590070921986</v>
+        <v>327.308409929078</v>
       </c>
       <c r="G99" t="n">
-        <v>275.9166666666667</v>
+        <v>275.7333333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E100" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F100" t="n">
-        <v>16936.5518</v>
+        <v>2.691590070921986</v>
       </c>
       <c r="G100" t="n">
-        <v>276.1</v>
+        <v>275.9166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>281</v>
       </c>
       <c r="F101" t="n">
-        <v>6024.9653</v>
+        <v>16936.5518</v>
       </c>
       <c r="G101" t="n">
-        <v>276.25</v>
+        <v>276.1</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>281</v>
       </c>
       <c r="F102" t="n">
-        <v>6162.4487</v>
+        <v>6024.9653</v>
       </c>
       <c r="G102" t="n">
-        <v>276.4</v>
+        <v>276.25</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C103" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D103" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E103" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F103" t="n">
-        <v>7139.7642</v>
+        <v>6162.4487</v>
       </c>
       <c r="G103" t="n">
-        <v>276.5166666666667</v>
+        <v>276.4</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>280</v>
+      </c>
+      <c r="C104" t="n">
         <v>279</v>
       </c>
-      <c r="C104" t="n">
-        <v>276</v>
-      </c>
       <c r="D104" t="n">
+        <v>280</v>
+      </c>
+      <c r="E104" t="n">
         <v>279</v>
       </c>
-      <c r="E104" t="n">
-        <v>276</v>
-      </c>
       <c r="F104" t="n">
-        <v>2558.1434</v>
+        <v>7139.7642</v>
       </c>
       <c r="G104" t="n">
-        <v>276.6166666666667</v>
+        <v>276.5166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C105" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D105" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E105" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F105" t="n">
-        <v>61</v>
+        <v>2558.1434</v>
       </c>
       <c r="G105" t="n">
-        <v>276.7166666666666</v>
+        <v>276.6166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E106" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F106" t="n">
-        <v>129.546</v>
+        <v>61</v>
       </c>
       <c r="G106" t="n">
-        <v>276.8</v>
+        <v>276.7166666666666</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E107" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F107" t="n">
-        <v>862.9126</v>
+        <v>129.546</v>
       </c>
       <c r="G107" t="n">
-        <v>276.8833333333333</v>
+        <v>276.8</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>278</v>
       </c>
       <c r="F108" t="n">
-        <v>746</v>
+        <v>862.9126</v>
       </c>
       <c r="G108" t="n">
-        <v>277.0166666666667</v>
+        <v>276.8833333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>278</v>
       </c>
       <c r="F109" t="n">
-        <v>3477.6228</v>
+        <v>746</v>
       </c>
       <c r="G109" t="n">
-        <v>277.0833333333333</v>
+        <v>277.0166666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>278</v>
       </c>
       <c r="F110" t="n">
-        <v>1414.926</v>
+        <v>3477.6228</v>
       </c>
       <c r="G110" t="n">
-        <v>277.15</v>
+        <v>277.0833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>278</v>
       </c>
       <c r="F111" t="n">
-        <v>4.5386</v>
+        <v>1414.926</v>
       </c>
       <c r="G111" t="n">
-        <v>277.2</v>
+        <v>277.15</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>278</v>
       </c>
       <c r="C112" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D112" t="n">
         <v>278</v>
       </c>
       <c r="E112" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F112" t="n">
-        <v>7465.5342</v>
+        <v>4.5386</v>
       </c>
       <c r="G112" t="n">
-        <v>277.2333333333333</v>
+        <v>277.2</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C113" t="n">
         <v>277</v>
       </c>
       <c r="D113" t="n">
+        <v>278</v>
+      </c>
+      <c r="E113" t="n">
         <v>277</v>
       </c>
-      <c r="E113" t="n">
-        <v>276</v>
-      </c>
       <c r="F113" t="n">
-        <v>8337.7575</v>
+        <v>7465.5342</v>
       </c>
       <c r="G113" t="n">
-        <v>277.2666666666667</v>
+        <v>277.2333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>276</v>
+      </c>
+      <c r="C114" t="n">
         <v>277</v>
       </c>
-      <c r="C114" t="n">
-        <v>279</v>
-      </c>
       <c r="D114" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E114" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114" t="n">
-        <v>101</v>
+        <v>8337.7575</v>
       </c>
       <c r="G114" t="n">
-        <v>277.3</v>
+        <v>277.2666666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>277</v>
       </c>
       <c r="C115" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D115" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E115" t="n">
         <v>277</v>
       </c>
       <c r="F115" t="n">
-        <v>699.2137</v>
+        <v>101</v>
       </c>
       <c r="G115" t="n">
-        <v>277.3333333333333</v>
+        <v>277.3</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C116" t="n">
         <v>277</v>
       </c>
       <c r="D116" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E116" t="n">
         <v>277</v>
       </c>
       <c r="F116" t="n">
-        <v>2074.8413</v>
+        <v>699.2137</v>
       </c>
       <c r="G116" t="n">
-        <v>277.3666666666667</v>
+        <v>277.3333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>278</v>
       </c>
       <c r="C117" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D117" t="n">
         <v>278</v>
       </c>
       <c r="E117" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F117" t="n">
-        <v>738.2374</v>
+        <v>2074.8413</v>
       </c>
       <c r="G117" t="n">
-        <v>277.4166666666667</v>
+        <v>277.3666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>278</v>
       </c>
       <c r="F118" t="n">
-        <v>197.9568</v>
+        <v>738.2374</v>
       </c>
       <c r="G118" t="n">
-        <v>277.4666666666666</v>
+        <v>277.4166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3806,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C119" t="n">
         <v>278</v>
@@ -3459,15 +3815,18 @@
         <v>278</v>
       </c>
       <c r="E119" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F119" t="n">
-        <v>492.4799</v>
+        <v>197.9568</v>
       </c>
       <c r="G119" t="n">
-        <v>277.5</v>
+        <v>277.4666666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C120" t="n">
         <v>278</v>
@@ -3485,15 +3844,18 @@
         <v>278</v>
       </c>
       <c r="E120" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F120" t="n">
-        <v>1812.1654</v>
+        <v>492.4799</v>
       </c>
       <c r="G120" t="n">
-        <v>277.5333333333334</v>
+        <v>277.5</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>278</v>
       </c>
       <c r="C121" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D121" t="n">
         <v>278</v>
       </c>
       <c r="E121" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F121" t="n">
-        <v>349.2841</v>
+        <v>1812.1654</v>
       </c>
       <c r="G121" t="n">
-        <v>277.55</v>
+        <v>277.5333333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>277</v>
       </c>
       <c r="F122" t="n">
-        <v>395.2136</v>
+        <v>349.2841</v>
       </c>
       <c r="G122" t="n">
-        <v>277.5833333333333</v>
+        <v>277.55</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C123" t="n">
         <v>277</v>
       </c>
       <c r="D123" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E123" t="n">
         <v>277</v>
       </c>
       <c r="F123" t="n">
-        <v>8619.9627</v>
+        <v>395.2136</v>
       </c>
       <c r="G123" t="n">
-        <v>277.6166666666667</v>
+        <v>277.5833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>277</v>
       </c>
       <c r="F124" t="n">
-        <v>238.2134</v>
+        <v>8619.9627</v>
       </c>
       <c r="G124" t="n">
-        <v>277.65</v>
+        <v>277.6166666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>277</v>
       </c>
       <c r="F125" t="n">
-        <v>53.21</v>
+        <v>238.2134</v>
       </c>
       <c r="G125" t="n">
-        <v>277.6833333333333</v>
+        <v>277.65</v>
       </c>
       <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>277</v>
       </c>
       <c r="F126" t="n">
-        <v>2363.8646</v>
+        <v>53.21</v>
       </c>
       <c r="G126" t="n">
-        <v>277.7166666666666</v>
+        <v>277.6833333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E127" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F127" t="n">
-        <v>3491.9944</v>
+        <v>2363.8646</v>
       </c>
       <c r="G127" t="n">
-        <v>277.7666666666667</v>
+        <v>277.7166666666666</v>
       </c>
       <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>278</v>
       </c>
       <c r="F128" t="n">
-        <v>10668.0661</v>
+        <v>3491.9944</v>
       </c>
       <c r="G128" t="n">
-        <v>277.8166666666667</v>
+        <v>277.7666666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>278</v>
       </c>
       <c r="F129" t="n">
-        <v>2080.8198</v>
+        <v>10668.0661</v>
       </c>
       <c r="G129" t="n">
-        <v>277.8666666666667</v>
+        <v>277.8166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>278</v>
       </c>
       <c r="F130" t="n">
-        <v>5825.0176</v>
+        <v>2080.8198</v>
       </c>
       <c r="G130" t="n">
-        <v>277.9</v>
+        <v>277.8666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>278</v>
       </c>
       <c r="C131" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D131" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E131" t="n">
         <v>278</v>
       </c>
       <c r="F131" t="n">
-        <v>1402.8943</v>
+        <v>5825.0176</v>
       </c>
       <c r="G131" t="n">
-        <v>277.95</v>
+        <v>277.9</v>
       </c>
       <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C132" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D132" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E132" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F132" t="n">
-        <v>1215.3443</v>
+        <v>1402.8943</v>
       </c>
       <c r="G132" t="n">
-        <v>278.05</v>
+        <v>277.95</v>
       </c>
       <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E133" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F133" t="n">
-        <v>10890.5212</v>
+        <v>1215.3443</v>
       </c>
       <c r="G133" t="n">
-        <v>278.1833333333333</v>
+        <v>278.05</v>
       </c>
       <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E134" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F134" t="n">
-        <v>1.54</v>
+        <v>10890.5212</v>
       </c>
       <c r="G134" t="n">
-        <v>278.3</v>
+        <v>278.1833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>281</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="G135" t="n">
-        <v>278.4166666666667</v>
+        <v>278.3</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>281</v>
       </c>
       <c r="C136" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D136" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E136" t="n">
         <v>281</v>
       </c>
       <c r="F136" t="n">
-        <v>711.4165</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>278.5666666666667</v>
+        <v>278.4166666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>281</v>
       </c>
       <c r="C137" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D137" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E137" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F137" t="n">
-        <v>40855.5433</v>
+        <v>711.4165</v>
       </c>
       <c r="G137" t="n">
-        <v>278.7166666666666</v>
+        <v>278.5666666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>281</v>
+      </c>
+      <c r="C138" t="n">
         <v>283</v>
       </c>
-      <c r="C138" t="n">
-        <v>284</v>
-      </c>
       <c r="D138" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E138" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F138" t="n">
-        <v>306.2777</v>
+        <v>40855.5433</v>
       </c>
       <c r="G138" t="n">
-        <v>278.8833333333333</v>
+        <v>278.7166666666666</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,7 +4386,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C139" t="n">
         <v>284</v>
@@ -3979,15 +4395,18 @@
         <v>284</v>
       </c>
       <c r="E139" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F139" t="n">
-        <v>328.8238</v>
+        <v>306.2777</v>
       </c>
       <c r="G139" t="n">
-        <v>279.0833333333333</v>
+        <v>278.8833333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>284</v>
       </c>
       <c r="F140" t="n">
-        <v>34.3992</v>
+        <v>328.8238</v>
       </c>
       <c r="G140" t="n">
-        <v>279.25</v>
+        <v>279.0833333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>284</v>
       </c>
       <c r="F141" t="n">
-        <v>685.2963999999999</v>
+        <v>34.3992</v>
       </c>
       <c r="G141" t="n">
-        <v>279.4</v>
+        <v>279.25</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>284</v>
       </c>
       <c r="F142" t="n">
-        <v>690.8169</v>
+        <v>685.2963999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>279.5333333333334</v>
+        <v>279.4</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>284</v>
       </c>
       <c r="F143" t="n">
-        <v>44655.2566</v>
+        <v>690.8169</v>
       </c>
       <c r="G143" t="n">
-        <v>279.6666666666667</v>
+        <v>279.5333333333334</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>284</v>
       </c>
       <c r="F144" t="n">
-        <v>719.9999</v>
+        <v>44655.2566</v>
       </c>
       <c r="G144" t="n">
-        <v>279.7833333333334</v>
+        <v>279.6666666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4132,18 +4566,21 @@
         <v>284</v>
       </c>
       <c r="D145" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E145" t="n">
         <v>284</v>
       </c>
       <c r="F145" t="n">
-        <v>3204.7993</v>
+        <v>719.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>279.8833333333333</v>
+        <v>279.7833333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4158,18 +4595,21 @@
         <v>284</v>
       </c>
       <c r="D146" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E146" t="n">
         <v>284</v>
       </c>
       <c r="F146" t="n">
-        <v>104.4283</v>
+        <v>3204.7993</v>
       </c>
       <c r="G146" t="n">
-        <v>279.9833333333333</v>
+        <v>279.8833333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>284</v>
       </c>
       <c r="F147" t="n">
-        <v>912.2599</v>
+        <v>104.4283</v>
       </c>
       <c r="G147" t="n">
-        <v>280.0666666666667</v>
+        <v>279.9833333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>284</v>
       </c>
       <c r="F148" t="n">
-        <v>85.0257</v>
+        <v>912.2599</v>
       </c>
       <c r="G148" t="n">
-        <v>280.1333333333333</v>
+        <v>280.0666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>284</v>
       </c>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>85.0257</v>
       </c>
       <c r="G149" t="n">
-        <v>280.1833333333333</v>
+        <v>280.1333333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>284</v>
       </c>
       <c r="F150" t="n">
-        <v>3.708</v>
+        <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>280.2333333333333</v>
+        <v>280.1833333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E151" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F151" t="n">
-        <v>231.3714</v>
+        <v>3.708</v>
       </c>
       <c r="G151" t="n">
-        <v>280.3</v>
+        <v>280.2333333333333</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C152" t="n">
         <v>286</v>
       </c>
       <c r="D152" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E152" t="n">
         <v>286</v>
       </c>
       <c r="F152" t="n">
-        <v>812.9541</v>
+        <v>231.3714</v>
       </c>
       <c r="G152" t="n">
-        <v>280.3666666666667</v>
+        <v>280.3</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>287</v>
       </c>
       <c r="C153" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D153" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E153" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F153" t="n">
-        <v>16583.0972</v>
+        <v>812.9541</v>
       </c>
       <c r="G153" t="n">
-        <v>280.45</v>
+        <v>280.3666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,7 +4824,7 @@
         <v>287</v>
       </c>
       <c r="C154" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D154" t="n">
         <v>288</v>
@@ -4372,12 +4833,15 @@
         <v>287</v>
       </c>
       <c r="F154" t="n">
-        <v>13891.731</v>
+        <v>16583.0972</v>
       </c>
       <c r="G154" t="n">
-        <v>280.5333333333334</v>
+        <v>280.45</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4392,18 +4856,21 @@
         <v>287</v>
       </c>
       <c r="D155" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E155" t="n">
         <v>287</v>
       </c>
       <c r="F155" t="n">
-        <v>1225.0015</v>
+        <v>13891.731</v>
       </c>
       <c r="G155" t="n">
-        <v>280.6333333333333</v>
+        <v>280.5333333333334</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>287</v>
       </c>
       <c r="F156" t="n">
-        <v>4035.5514</v>
+        <v>1225.0015</v>
       </c>
       <c r="G156" t="n">
-        <v>280.7333333333333</v>
+        <v>280.6333333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>287</v>
       </c>
       <c r="F157" t="n">
-        <v>1140.3588</v>
+        <v>4035.5514</v>
       </c>
       <c r="G157" t="n">
-        <v>280.8166666666667</v>
+        <v>280.7333333333333</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>287</v>
       </c>
       <c r="F158" t="n">
-        <v>9.202</v>
+        <v>1140.3588</v>
       </c>
       <c r="G158" t="n">
-        <v>280.9</v>
+        <v>280.8166666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>287</v>
       </c>
       <c r="F159" t="n">
-        <v>6535</v>
+        <v>9.202</v>
       </c>
       <c r="G159" t="n">
-        <v>280.9833333333333</v>
+        <v>280.9</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>287</v>
       </c>
       <c r="F160" t="n">
-        <v>355.4396</v>
+        <v>6535</v>
       </c>
       <c r="G160" t="n">
-        <v>281.0833333333333</v>
+        <v>280.9833333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4545,21 +5027,24 @@
         <v>287</v>
       </c>
       <c r="C161" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D161" t="n">
         <v>287</v>
       </c>
       <c r="E161" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F161" t="n">
-        <v>1772.4079</v>
+        <v>355.4396</v>
       </c>
       <c r="G161" t="n">
-        <v>281.1666666666667</v>
+        <v>281.0833333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>287</v>
       </c>
       <c r="C162" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D162" t="n">
         <v>287</v>
       </c>
       <c r="E162" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F162" t="n">
-        <v>4.0555</v>
+        <v>1772.4079</v>
       </c>
       <c r="G162" t="n">
-        <v>281.2666666666667</v>
+        <v>281.1666666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>287</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8112</v>
+        <v>4.0555</v>
       </c>
       <c r="G163" t="n">
-        <v>281.4</v>
+        <v>281.2666666666667</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C164" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D164" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E164" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F164" t="n">
-        <v>16541.6395</v>
+        <v>0.8112</v>
       </c>
       <c r="G164" t="n">
-        <v>281.5</v>
+        <v>281.4</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4649,21 +5143,24 @@
         <v>285</v>
       </c>
       <c r="C165" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D165" t="n">
         <v>285</v>
       </c>
       <c r="E165" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F165" t="n">
-        <v>1077</v>
+        <v>16541.6395</v>
       </c>
       <c r="G165" t="n">
-        <v>281.6166666666667</v>
+        <v>281.5</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,7 +5169,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C166" t="n">
         <v>285</v>
@@ -4681,15 +5178,18 @@
         <v>285</v>
       </c>
       <c r="E166" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F166" t="n">
-        <v>718.3449000000001</v>
+        <v>1077</v>
       </c>
       <c r="G166" t="n">
-        <v>281.75</v>
+        <v>281.6166666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>284</v>
       </c>
       <c r="C167" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D167" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E167" t="n">
         <v>284</v>
       </c>
       <c r="F167" t="n">
-        <v>177.3901</v>
+        <v>718.3449000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>281.85</v>
+        <v>281.75</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>284</v>
       </c>
       <c r="C168" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D168" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E168" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F168" t="n">
-        <v>13434.8676</v>
+        <v>177.3901</v>
       </c>
       <c r="G168" t="n">
-        <v>281.9166666666667</v>
+        <v>281.85</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C169" t="n">
         <v>282</v>
       </c>
       <c r="D169" t="n">
+        <v>285</v>
+      </c>
+      <c r="E169" t="n">
         <v>282</v>
       </c>
-      <c r="E169" t="n">
-        <v>280</v>
-      </c>
       <c r="F169" t="n">
-        <v>10115.7948</v>
+        <v>13434.8676</v>
       </c>
       <c r="G169" t="n">
-        <v>281.9833333333333</v>
+        <v>281.9166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4785,15 +5294,18 @@
         <v>282</v>
       </c>
       <c r="E170" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F170" t="n">
-        <v>16953.8201</v>
+        <v>10115.7948</v>
       </c>
       <c r="G170" t="n">
-        <v>282.05</v>
+        <v>281.9833333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,7 +5314,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C171" t="n">
         <v>282</v>
@@ -4811,15 +5323,18 @@
         <v>282</v>
       </c>
       <c r="E171" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F171" t="n">
-        <v>1094.3011</v>
+        <v>16953.8201</v>
       </c>
       <c r="G171" t="n">
-        <v>282.1166666666667</v>
+        <v>282.05</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>282</v>
       </c>
       <c r="F172" t="n">
-        <v>4543.9999</v>
+        <v>1094.3011</v>
       </c>
       <c r="G172" t="n">
-        <v>282.2</v>
+        <v>282.1166666666667</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4863,15 +5381,18 @@
         <v>282</v>
       </c>
       <c r="E173" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F173" t="n">
-        <v>8415.8369</v>
+        <v>4543.9999</v>
       </c>
       <c r="G173" t="n">
-        <v>282.2833333333334</v>
+        <v>282.2</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +5401,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C174" t="n">
         <v>282</v>
@@ -4892,12 +5413,15 @@
         <v>280</v>
       </c>
       <c r="F174" t="n">
-        <v>12726.5141</v>
+        <v>8415.8369</v>
       </c>
       <c r="G174" t="n">
-        <v>282.3333333333333</v>
+        <v>282.2833333333334</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +5430,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C175" t="n">
         <v>282</v>
@@ -4915,15 +5439,18 @@
         <v>282</v>
       </c>
       <c r="E175" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F175" t="n">
-        <v>6133.3452</v>
+        <v>12726.5141</v>
       </c>
       <c r="G175" t="n">
-        <v>282.4166666666667</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>282</v>
       </c>
       <c r="F176" t="n">
-        <v>7259.7516</v>
+        <v>6133.3452</v>
       </c>
       <c r="G176" t="n">
-        <v>282.5</v>
+        <v>282.4166666666667</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E177" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F177" t="n">
-        <v>42.6428</v>
+        <v>7259.7516</v>
       </c>
       <c r="G177" t="n">
-        <v>282.6</v>
+        <v>282.5</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E178" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F178" t="n">
-        <v>1137.5079</v>
+        <v>42.6428</v>
       </c>
       <c r="G178" t="n">
-        <v>282.6833333333333</v>
+        <v>282.6</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E179" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F179" t="n">
-        <v>965.6494</v>
+        <v>1137.5079</v>
       </c>
       <c r="G179" t="n">
-        <v>282.7833333333334</v>
+        <v>282.6833333333333</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E180" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F180" t="n">
-        <v>4.9415</v>
+        <v>965.6494</v>
       </c>
       <c r="G180" t="n">
-        <v>282.8666666666667</v>
+        <v>282.7833333333334</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,7 +5604,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C181" t="n">
         <v>283</v>
@@ -5071,15 +5613,18 @@
         <v>283</v>
       </c>
       <c r="E181" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F181" t="n">
-        <v>509</v>
+        <v>4.9415</v>
       </c>
       <c r="G181" t="n">
-        <v>282.9666666666666</v>
+        <v>282.8666666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C182" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D182" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E182" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F182" t="n">
-        <v>177.9359</v>
+        <v>509</v>
       </c>
       <c r="G182" t="n">
-        <v>283.0166666666667</v>
+        <v>282.9666666666666</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>280</v>
       </c>
       <c r="F183" t="n">
-        <v>3841.8726</v>
+        <v>177.9359</v>
       </c>
       <c r="G183" t="n">
-        <v>283.0666666666667</v>
+        <v>283.0166666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>280</v>
       </c>
       <c r="F184" t="n">
-        <v>57.4979</v>
+        <v>3841.8726</v>
       </c>
       <c r="G184" t="n">
-        <v>283.1166666666667</v>
+        <v>283.0666666666667</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C185" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D185" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E185" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F185" t="n">
-        <v>842.7513</v>
+        <v>57.4979</v>
       </c>
       <c r="G185" t="n">
-        <v>283.15</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,7 +5749,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C186" t="n">
         <v>279</v>
@@ -5201,15 +5758,18 @@
         <v>279</v>
       </c>
       <c r="E186" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F186" t="n">
-        <v>2437.1723</v>
+        <v>842.7513</v>
       </c>
       <c r="G186" t="n">
-        <v>283.1833333333333</v>
+        <v>283.15</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E187" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F187" t="n">
-        <v>57.4979</v>
+        <v>2437.1723</v>
       </c>
       <c r="G187" t="n">
-        <v>283.2333333333333</v>
+        <v>283.1833333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>281</v>
       </c>
       <c r="C188" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D188" t="n">
         <v>281</v>
       </c>
       <c r="E188" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F188" t="n">
-        <v>218.8768</v>
+        <v>57.4979</v>
       </c>
       <c r="G188" t="n">
-        <v>283.2666666666667</v>
+        <v>283.2333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,10 +5836,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>281</v>
+      </c>
+      <c r="C189" t="n">
         <v>280</v>
-      </c>
-      <c r="C189" t="n">
-        <v>281</v>
       </c>
       <c r="D189" t="n">
         <v>281</v>
@@ -5282,12 +5848,15 @@
         <v>280</v>
       </c>
       <c r="F189" t="n">
-        <v>2712.1201</v>
+        <v>218.8768</v>
       </c>
       <c r="G189" t="n">
-        <v>283.3166666666667</v>
+        <v>283.2666666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,21 +5868,24 @@
         <v>280</v>
       </c>
       <c r="C190" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D190" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E190" t="n">
         <v>280</v>
       </c>
       <c r="F190" t="n">
-        <v>761.056</v>
+        <v>2712.1201</v>
       </c>
       <c r="G190" t="n">
-        <v>283.35</v>
+        <v>283.3166666666667</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5325,21 +5897,24 @@
         <v>280</v>
       </c>
       <c r="C191" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D191" t="n">
         <v>280</v>
       </c>
       <c r="E191" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F191" t="n">
-        <v>9585.826800000001</v>
+        <v>761.056</v>
       </c>
       <c r="G191" t="n">
         <v>283.35</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>280</v>
+      </c>
+      <c r="C192" t="n">
         <v>279</v>
       </c>
-      <c r="C192" t="n">
-        <v>281</v>
-      </c>
       <c r="D192" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E192" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F192" t="n">
-        <v>12523.0092</v>
+        <v>9585.826800000001</v>
       </c>
       <c r="G192" t="n">
         <v>283.35</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>279</v>
       </c>
       <c r="C193" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D193" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E193" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F193" t="n">
-        <v>1210.7168</v>
+        <v>12523.0092</v>
       </c>
       <c r="G193" t="n">
-        <v>283.3</v>
+        <v>283.35</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,21 +5984,24 @@
         <v>279</v>
       </c>
       <c r="C194" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D194" t="n">
         <v>279</v>
       </c>
       <c r="E194" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F194" t="n">
-        <v>3019.5266</v>
+        <v>1210.7168</v>
       </c>
       <c r="G194" t="n">
-        <v>283.2333333333333</v>
+        <v>283.3</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>279</v>
+      </c>
+      <c r="C195" t="n">
         <v>277</v>
       </c>
-      <c r="C195" t="n">
-        <v>276</v>
-      </c>
       <c r="D195" t="n">
+        <v>279</v>
+      </c>
+      <c r="E195" t="n">
         <v>277</v>
       </c>
-      <c r="E195" t="n">
-        <v>276</v>
-      </c>
       <c r="F195" t="n">
-        <v>1714.5187</v>
+        <v>3019.5266</v>
       </c>
       <c r="G195" t="n">
-        <v>283.15</v>
+        <v>283.2333333333333</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,21 +6042,24 @@
         <v>277</v>
       </c>
       <c r="C196" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D196" t="n">
         <v>277</v>
       </c>
       <c r="E196" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F196" t="n">
-        <v>106.2498</v>
+        <v>1714.5187</v>
       </c>
       <c r="G196" t="n">
-        <v>283.0666666666667</v>
+        <v>283.15</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>277</v>
       </c>
       <c r="F197" t="n">
-        <v>605.7528</v>
+        <v>106.2498</v>
       </c>
       <c r="G197" t="n">
-        <v>282.9666666666666</v>
+        <v>283.0666666666667</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>277</v>
       </c>
       <c r="F198" t="n">
-        <v>106.2498</v>
+        <v>605.7528</v>
       </c>
       <c r="G198" t="n">
-        <v>282.85</v>
+        <v>282.9666666666666</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C199" t="n">
         <v>277</v>
       </c>
       <c r="D199" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E199" t="n">
         <v>277</v>
       </c>
       <c r="F199" t="n">
-        <v>1854.0019</v>
+        <v>106.2498</v>
       </c>
       <c r="G199" t="n">
-        <v>282.7333333333333</v>
+        <v>282.85</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,10 +6155,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>279</v>
+      </c>
+      <c r="C200" t="n">
         <v>277</v>
-      </c>
-      <c r="C200" t="n">
-        <v>279</v>
       </c>
       <c r="D200" t="n">
         <v>279</v>
@@ -5568,12 +6167,15 @@
         <v>277</v>
       </c>
       <c r="F200" t="n">
-        <v>164.9007</v>
+        <v>1854.0019</v>
       </c>
       <c r="G200" t="n">
-        <v>282.65</v>
+        <v>282.7333333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,7 +6184,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C201" t="n">
         <v>279</v>
@@ -5591,15 +6193,18 @@
         <v>279</v>
       </c>
       <c r="E201" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F201" t="n">
-        <v>1824.5999</v>
+        <v>164.9007</v>
       </c>
       <c r="G201" t="n">
-        <v>282.5666666666667</v>
+        <v>282.65</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>279</v>
       </c>
       <c r="F202" t="n">
-        <v>9.4726</v>
+        <v>1824.5999</v>
       </c>
       <c r="G202" t="n">
-        <v>282.4833333333333</v>
+        <v>282.5666666666667</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E203" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F203" t="n">
-        <v>8008.1137</v>
+        <v>9.4726</v>
       </c>
       <c r="G203" t="n">
-        <v>282.4333333333333</v>
+        <v>282.4833333333333</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E204" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F204" t="n">
-        <v>6929.2892</v>
+        <v>8008.1137</v>
       </c>
       <c r="G204" t="n">
-        <v>282.3666666666667</v>
+        <v>282.4333333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E205" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F205" t="n">
-        <v>403.7398</v>
+        <v>6929.2892</v>
       </c>
       <c r="G205" t="n">
-        <v>282.2833333333334</v>
+        <v>282.3666666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>279</v>
       </c>
       <c r="C206" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D206" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E206" t="n">
         <v>279</v>
       </c>
       <c r="F206" t="n">
-        <v>1846.6787</v>
+        <v>403.7398</v>
       </c>
       <c r="G206" t="n">
-        <v>282.2166666666666</v>
+        <v>282.2833333333334</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +6358,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C207" t="n">
         <v>280</v>
@@ -5747,15 +6367,18 @@
         <v>280</v>
       </c>
       <c r="E207" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F207" t="n">
-        <v>922.6188</v>
+        <v>1846.6787</v>
       </c>
       <c r="G207" t="n">
-        <v>282.15</v>
+        <v>282.2166666666666</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,21 +6390,24 @@
         <v>280</v>
       </c>
       <c r="C208" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D208" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E208" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F208" t="n">
-        <v>8292.4293</v>
+        <v>922.6188</v>
       </c>
       <c r="G208" t="n">
-        <v>282.1</v>
+        <v>282.15</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C209" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D209" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E209" t="n">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F209" t="n">
-        <v>876.256</v>
+        <v>8292.4293</v>
       </c>
       <c r="G209" t="n">
-        <v>282.0666666666667</v>
+        <v>282.1</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E210" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F210" t="n">
-        <v>3276.1272</v>
+        <v>876.256</v>
       </c>
       <c r="G210" t="n">
-        <v>282.05</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5848,18 +6480,21 @@
         <v>283</v>
       </c>
       <c r="D211" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E211" t="n">
         <v>283</v>
       </c>
       <c r="F211" t="n">
-        <v>3449.916054225352</v>
+        <v>3276.1272</v>
       </c>
       <c r="G211" t="n">
-        <v>282</v>
+        <v>282.05</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C212" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D212" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E212" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F212" t="n">
-        <v>11872.62914577465</v>
+        <v>3449.916054225352</v>
       </c>
       <c r="G212" t="n">
-        <v>281.9833333333333</v>
+        <v>282</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>284</v>
+      </c>
+      <c r="C213" t="n">
         <v>285</v>
       </c>
-      <c r="C213" t="n">
-        <v>286</v>
-      </c>
       <c r="D213" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E213" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F213" t="n">
-        <v>1541.902</v>
+        <v>11872.62914577465</v>
       </c>
       <c r="G213" t="n">
-        <v>281.95</v>
+        <v>281.9833333333333</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,7 +6561,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" t="n">
         <v>286</v>
@@ -5929,15 +6570,18 @@
         <v>286</v>
       </c>
       <c r="E214" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F214" t="n">
-        <v>7154.1188</v>
+        <v>1541.902</v>
       </c>
       <c r="G214" t="n">
-        <v>281.9333333333333</v>
+        <v>281.95</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>286</v>
       </c>
       <c r="C215" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D215" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E215" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F215" t="n">
-        <v>5470.6932</v>
+        <v>7154.1188</v>
       </c>
       <c r="G215" t="n">
-        <v>281.8833333333333</v>
+        <v>281.9333333333333</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C216" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D216" t="n">
         <v>287</v>
       </c>
       <c r="E216" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F216" t="n">
-        <v>865</v>
+        <v>5470.6932</v>
       </c>
       <c r="G216" t="n">
         <v>281.8833333333333</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6001,21 +6651,24 @@
         <v>287</v>
       </c>
       <c r="C217" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D217" t="n">
         <v>287</v>
       </c>
       <c r="E217" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F217" t="n">
-        <v>1169.374361672474</v>
+        <v>865</v>
       </c>
       <c r="G217" t="n">
-        <v>281.8666666666667</v>
+        <v>281.8833333333333</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,21 +6680,24 @@
         <v>287</v>
       </c>
       <c r="C218" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D218" t="n">
         <v>287</v>
       </c>
       <c r="E218" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F218" t="n">
-        <v>25825.297</v>
+        <v>1169.374361672474</v>
       </c>
       <c r="G218" t="n">
-        <v>281.8333333333333</v>
+        <v>281.8666666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C219" t="n">
         <v>285</v>
       </c>
       <c r="D219" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E219" t="n">
         <v>285</v>
       </c>
       <c r="F219" t="n">
-        <v>2577.3323</v>
+        <v>25825.297</v>
       </c>
       <c r="G219" t="n">
-        <v>281.8</v>
+        <v>281.8333333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,7 +6735,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C220" t="n">
         <v>285</v>
@@ -6085,15 +6744,18 @@
         <v>285</v>
       </c>
       <c r="E220" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F220" t="n">
-        <v>2305.8961</v>
+        <v>2577.3323</v>
       </c>
       <c r="G220" t="n">
-        <v>281.7666666666667</v>
+        <v>281.8</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>284</v>
+      </c>
+      <c r="C221" t="n">
         <v>285</v>
       </c>
-      <c r="C221" t="n">
-        <v>286</v>
-      </c>
       <c r="D221" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E221" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F221" t="n">
-        <v>1892.0592</v>
+        <v>2305.8961</v>
       </c>
       <c r="G221" t="n">
         <v>281.7666666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>285</v>
+      </c>
+      <c r="C222" t="n">
         <v>286</v>
-      </c>
-      <c r="C222" t="n">
-        <v>285</v>
       </c>
       <c r="D222" t="n">
         <v>286</v>
       </c>
       <c r="E222" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F222" t="n">
-        <v>440.5879</v>
+        <v>1892.0592</v>
       </c>
       <c r="G222" t="n">
-        <v>281.7333333333333</v>
+        <v>281.7666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C223" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D223" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E223" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F223" t="n">
-        <v>1702.7588</v>
+        <v>440.5879</v>
       </c>
       <c r="G223" t="n">
-        <v>281.6833333333333</v>
+        <v>281.7333333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,7 +6851,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C224" t="n">
         <v>284</v>
@@ -6189,15 +6860,18 @@
         <v>284</v>
       </c>
       <c r="E224" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F224" t="n">
-        <v>420.3455</v>
+        <v>1702.7588</v>
       </c>
       <c r="G224" t="n">
-        <v>281.7166666666666</v>
+        <v>281.6833333333333</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>284</v>
       </c>
       <c r="F225" t="n">
-        <v>241.5274</v>
+        <v>420.3455</v>
       </c>
       <c r="G225" t="n">
-        <v>281.7</v>
+        <v>281.7166666666666</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E226" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F226" t="n">
-        <v>600.6273</v>
+        <v>241.5274</v>
       </c>
       <c r="G226" t="n">
         <v>281.7</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E227" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F227" t="n">
-        <v>120.6363</v>
+        <v>600.6273</v>
       </c>
       <c r="G227" t="n">
-        <v>281.7333333333333</v>
+        <v>281.7</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>286</v>
       </c>
       <c r="F228" t="n">
-        <v>6855.6062</v>
+        <v>120.6363</v>
       </c>
       <c r="G228" t="n">
-        <v>281.8</v>
+        <v>281.7333333333333</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E229" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F229" t="n">
-        <v>842.8875</v>
+        <v>6855.6062</v>
       </c>
       <c r="G229" t="n">
-        <v>281.85</v>
+        <v>281.8</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E230" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F230" t="n">
-        <v>300</v>
+        <v>842.8875</v>
       </c>
       <c r="G230" t="n">
-        <v>281.9166666666667</v>
+        <v>281.85</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E231" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F231" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="G231" t="n">
-        <v>281.9666666666666</v>
+        <v>281.9166666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E232" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="G232" t="n">
-        <v>282.0333333333334</v>
+        <v>281.9666666666666</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E233" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F233" t="n">
-        <v>229.3212</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>282.0666666666667</v>
+        <v>282.0333333333334</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C234" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D234" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E234" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F234" t="n">
-        <v>3520.6171</v>
+        <v>229.3212</v>
       </c>
       <c r="G234" t="n">
-        <v>282.1333333333333</v>
+        <v>282.0666666666667</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C235" t="n">
+        <v>286</v>
+      </c>
+      <c r="D235" t="n">
+        <v>286</v>
+      </c>
+      <c r="E235" t="n">
         <v>285</v>
       </c>
-      <c r="D235" t="n">
-        <v>285</v>
-      </c>
-      <c r="E235" t="n">
-        <v>283</v>
-      </c>
       <c r="F235" t="n">
-        <v>343.8869</v>
+        <v>3520.6171</v>
       </c>
       <c r="G235" t="n">
-        <v>282.1833333333333</v>
+        <v>282.1333333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,7 +7199,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C236" t="n">
         <v>285</v>
@@ -6501,15 +7208,18 @@
         <v>285</v>
       </c>
       <c r="E236" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F236" t="n">
-        <v>2250</v>
+        <v>343.8869</v>
       </c>
       <c r="G236" t="n">
-        <v>282.2333333333333</v>
+        <v>282.1833333333333</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,7 +7228,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C237" t="n">
         <v>285</v>
@@ -6527,15 +7237,18 @@
         <v>285</v>
       </c>
       <c r="E237" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F237" t="n">
-        <v>158</v>
+        <v>2250</v>
       </c>
       <c r="G237" t="n">
-        <v>282.25</v>
+        <v>282.2333333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,12 +7269,15 @@
         <v>285</v>
       </c>
       <c r="F238" t="n">
-        <v>909.7361</v>
+        <v>158</v>
       </c>
       <c r="G238" t="n">
-        <v>282.2833333333334</v>
+        <v>282.25</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6582,12 +7298,15 @@
         <v>285</v>
       </c>
       <c r="F239" t="n">
-        <v>2967.1435</v>
+        <v>909.7361</v>
       </c>
       <c r="G239" t="n">
-        <v>282.3</v>
+        <v>282.2833333333334</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>285</v>
       </c>
       <c r="F240" t="n">
-        <v>850</v>
+        <v>2967.1435</v>
       </c>
       <c r="G240" t="n">
-        <v>282.3333333333333</v>
+        <v>282.3</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6634,12 +7356,15 @@
         <v>285</v>
       </c>
       <c r="F241" t="n">
-        <v>4110.1829</v>
+        <v>850</v>
       </c>
       <c r="G241" t="n">
-        <v>282.3666666666667</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>285</v>
       </c>
       <c r="C242" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D242" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E242" t="n">
         <v>285</v>
       </c>
       <c r="F242" t="n">
-        <v>58.6129</v>
+        <v>4110.1829</v>
       </c>
       <c r="G242" t="n">
-        <v>282.4666666666666</v>
+        <v>282.3666666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,7 +7402,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C243" t="n">
         <v>286</v>
@@ -6683,15 +7411,18 @@
         <v>286</v>
       </c>
       <c r="E243" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F243" t="n">
-        <v>1370</v>
+        <v>58.6129</v>
       </c>
       <c r="G243" t="n">
-        <v>282.5666666666667</v>
+        <v>282.4666666666666</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +7431,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C244" t="n">
         <v>286</v>
@@ -6709,15 +7440,18 @@
         <v>286</v>
       </c>
       <c r="E244" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F244" t="n">
-        <v>17945.6068</v>
+        <v>1370</v>
       </c>
       <c r="G244" t="n">
-        <v>282.6666666666667</v>
+        <v>282.5666666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C245" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D245" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E245" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F245" t="n">
-        <v>1078.9547</v>
+        <v>17945.6068</v>
       </c>
       <c r="G245" t="n">
-        <v>282.8</v>
+        <v>282.6666666666667</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E246" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F246" t="n">
-        <v>11.5244</v>
+        <v>1078.9547</v>
       </c>
       <c r="G246" t="n">
-        <v>282.9166666666667</v>
+        <v>282.8</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E247" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F247" t="n">
-        <v>1</v>
+        <v>11.5244</v>
       </c>
       <c r="G247" t="n">
-        <v>283.0166666666667</v>
+        <v>282.9166666666667</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E248" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F248" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>283.1166666666667</v>
+        <v>283.0166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E249" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F249" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G249" t="n">
-        <v>283.2166666666666</v>
+        <v>283.1166666666667</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6868,12 +7617,15 @@
         <v>287</v>
       </c>
       <c r="F250" t="n">
-        <v>4429.7699</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>283.3333333333333</v>
+        <v>283.2166666666666</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6894,12 +7646,15 @@
         <v>287</v>
       </c>
       <c r="F251" t="n">
-        <v>3579.0549</v>
+        <v>4429.7699</v>
       </c>
       <c r="G251" t="n">
-        <v>283.4666666666666</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6920,12 +7675,15 @@
         <v>287</v>
       </c>
       <c r="F252" t="n">
-        <v>3096.1184</v>
+        <v>3579.0549</v>
       </c>
       <c r="G252" t="n">
-        <v>283.5666666666667</v>
+        <v>283.4666666666666</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>287</v>
       </c>
       <c r="C253" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D253" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E253" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F253" t="n">
-        <v>9645.0504</v>
+        <v>3096.1184</v>
       </c>
       <c r="G253" t="n">
-        <v>283.6833333333333</v>
+        <v>283.5666666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C254" t="n">
         <v>286</v>
       </c>
       <c r="D254" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E254" t="n">
         <v>286</v>
       </c>
       <c r="F254" t="n">
-        <v>7.8148</v>
+        <v>9645.0504</v>
       </c>
       <c r="G254" t="n">
-        <v>283.8333333333333</v>
+        <v>283.6833333333333</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D255" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E255" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F255" t="n">
-        <v>1989.3515</v>
+        <v>7.8148</v>
       </c>
       <c r="G255" t="n">
-        <v>283.9833333333333</v>
+        <v>283.8333333333333</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7015,541 +7782,24 @@
         <v>285</v>
       </c>
       <c r="C256" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D256" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E256" t="n">
         <v>284</v>
       </c>
       <c r="F256" t="n">
-        <v>4759.222</v>
+        <v>1989.3515</v>
       </c>
       <c r="G256" t="n">
-        <v>284.1333333333333</v>
+        <v>283.9833333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>285</v>
-      </c>
-      <c r="C257" t="n">
-        <v>285</v>
-      </c>
-      <c r="D257" t="n">
-        <v>285</v>
-      </c>
-      <c r="E257" t="n">
-        <v>285</v>
-      </c>
-      <c r="F257" t="n">
-        <v>3554.0197</v>
-      </c>
-      <c r="G257" t="n">
-        <v>284.2666666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>285</v>
-      </c>
-      <c r="C258" t="n">
-        <v>285</v>
-      </c>
-      <c r="D258" t="n">
-        <v>285</v>
-      </c>
-      <c r="E258" t="n">
-        <v>285</v>
-      </c>
-      <c r="F258" t="n">
-        <v>22.782</v>
-      </c>
-      <c r="G258" t="n">
-        <v>284.4</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>285</v>
-      </c>
-      <c r="C259" t="n">
-        <v>285</v>
-      </c>
-      <c r="D259" t="n">
-        <v>285</v>
-      </c>
-      <c r="E259" t="n">
-        <v>285</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2.2532</v>
-      </c>
-      <c r="G259" t="n">
-        <v>284.5333333333334</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>285</v>
-      </c>
-      <c r="C260" t="n">
-        <v>285</v>
-      </c>
-      <c r="D260" t="n">
-        <v>285</v>
-      </c>
-      <c r="E260" t="n">
-        <v>285</v>
-      </c>
-      <c r="F260" t="n">
-        <v>6850.8475</v>
-      </c>
-      <c r="G260" t="n">
-        <v>284.6333333333333</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>287</v>
-      </c>
-      <c r="C261" t="n">
-        <v>287</v>
-      </c>
-      <c r="D261" t="n">
-        <v>287</v>
-      </c>
-      <c r="E261" t="n">
-        <v>287</v>
-      </c>
-      <c r="F261" t="n">
-        <v>310</v>
-      </c>
-      <c r="G261" t="n">
-        <v>284.7666666666667</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>286</v>
-      </c>
-      <c r="C262" t="n">
-        <v>286</v>
-      </c>
-      <c r="D262" t="n">
-        <v>286</v>
-      </c>
-      <c r="E262" t="n">
-        <v>286</v>
-      </c>
-      <c r="F262" t="n">
-        <v>60.5299</v>
-      </c>
-      <c r="G262" t="n">
-        <v>284.8833333333333</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>287</v>
-      </c>
-      <c r="C263" t="n">
-        <v>285</v>
-      </c>
-      <c r="D263" t="n">
-        <v>287</v>
-      </c>
-      <c r="E263" t="n">
-        <v>285</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1476</v>
-      </c>
-      <c r="G263" t="n">
-        <v>284.95</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>285</v>
-      </c>
-      <c r="C264" t="n">
-        <v>285</v>
-      </c>
-      <c r="D264" t="n">
-        <v>285</v>
-      </c>
-      <c r="E264" t="n">
-        <v>285</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1372.673</v>
-      </c>
-      <c r="G264" t="n">
-        <v>285.0333333333334</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>285</v>
-      </c>
-      <c r="C265" t="n">
-        <v>284</v>
-      </c>
-      <c r="D265" t="n">
-        <v>285</v>
-      </c>
-      <c r="E265" t="n">
-        <v>284</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3143.2275</v>
-      </c>
-      <c r="G265" t="n">
-        <v>285.1166666666667</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>284</v>
-      </c>
-      <c r="C266" t="n">
-        <v>284</v>
-      </c>
-      <c r="D266" t="n">
-        <v>284</v>
-      </c>
-      <c r="E266" t="n">
-        <v>284</v>
-      </c>
-      <c r="F266" t="n">
-        <v>997.5</v>
-      </c>
-      <c r="G266" t="n">
-        <v>285.1833333333333</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>284</v>
-      </c>
-      <c r="C267" t="n">
-        <v>284</v>
-      </c>
-      <c r="D267" t="n">
-        <v>284</v>
-      </c>
-      <c r="E267" t="n">
-        <v>284</v>
-      </c>
-      <c r="F267" t="n">
-        <v>98.07850000000001</v>
-      </c>
-      <c r="G267" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>284</v>
-      </c>
-      <c r="C268" t="n">
-        <v>283</v>
-      </c>
-      <c r="D268" t="n">
-        <v>284</v>
-      </c>
-      <c r="E268" t="n">
-        <v>283</v>
-      </c>
-      <c r="F268" t="n">
-        <v>997.5</v>
-      </c>
-      <c r="G268" t="n">
-        <v>285.2833333333334</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>285</v>
-      </c>
-      <c r="C269" t="n">
-        <v>285</v>
-      </c>
-      <c r="D269" t="n">
-        <v>285</v>
-      </c>
-      <c r="E269" t="n">
-        <v>285</v>
-      </c>
-      <c r="F269" t="n">
-        <v>17021.821</v>
-      </c>
-      <c r="G269" t="n">
-        <v>285.3333333333333</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>285</v>
-      </c>
-      <c r="C270" t="n">
-        <v>285</v>
-      </c>
-      <c r="D270" t="n">
-        <v>285</v>
-      </c>
-      <c r="E270" t="n">
-        <v>285</v>
-      </c>
-      <c r="F270" t="n">
-        <v>671.3728</v>
-      </c>
-      <c r="G270" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>284</v>
-      </c>
-      <c r="C271" t="n">
-        <v>285</v>
-      </c>
-      <c r="D271" t="n">
-        <v>285</v>
-      </c>
-      <c r="E271" t="n">
-        <v>284</v>
-      </c>
-      <c r="F271" t="n">
-        <v>3032.8501</v>
-      </c>
-      <c r="G271" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>285</v>
-      </c>
-      <c r="C272" t="n">
-        <v>285</v>
-      </c>
-      <c r="D272" t="n">
-        <v>285</v>
-      </c>
-      <c r="E272" t="n">
-        <v>285</v>
-      </c>
-      <c r="F272" t="n">
-        <v>478.3586</v>
-      </c>
-      <c r="G272" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>285</v>
-      </c>
-      <c r="C273" t="n">
-        <v>285</v>
-      </c>
-      <c r="D273" t="n">
-        <v>285</v>
-      </c>
-      <c r="E273" t="n">
-        <v>285</v>
-      </c>
-      <c r="F273" t="n">
-        <v>1274.4484</v>
-      </c>
-      <c r="G273" t="n">
-        <v>285.3833333333333</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>284</v>
-      </c>
-      <c r="C274" t="n">
-        <v>285</v>
-      </c>
-      <c r="D274" t="n">
-        <v>285</v>
-      </c>
-      <c r="E274" t="n">
-        <v>284</v>
-      </c>
-      <c r="F274" t="n">
-        <v>697.6895</v>
-      </c>
-      <c r="G274" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>285</v>
-      </c>
-      <c r="C275" t="n">
-        <v>284</v>
-      </c>
-      <c r="D275" t="n">
-        <v>285</v>
-      </c>
-      <c r="E275" t="n">
-        <v>284</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1741.555</v>
-      </c>
-      <c r="G275" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>285</v>
-      </c>
-      <c r="C276" t="n">
-        <v>284</v>
-      </c>
-      <c r="D276" t="n">
-        <v>285</v>
-      </c>
-      <c r="E276" t="n">
-        <v>284</v>
-      </c>
-      <c r="F276" t="n">
-        <v>2563.5906</v>
-      </c>
-      <c r="G276" t="n">
-        <v>285.3166666666667</v>
-      </c>
-      <c r="H276" t="n">
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
